--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4652" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4651" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -880,16 +880,13 @@
     <t>Invoice.status</t>
   </si>
   <si>
-    <t>FHIR Claim Status</t>
-  </si>
-  <si>
-    <t>Claim status reported to FHIR Claim required Statuses.</t>
-  </si>
-  <si>
-    <t>Codes identifying the lifecycle stage of an Invoice.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/invoice-status|4.0.1</t>
+    <t>FHIR Bill Status</t>
+  </si>
+  <si>
+    <t>Bill status reported to FHIR Invoice required statuses.</t>
+  </si>
+  <si>
+    <t>https://openimis.github.io/openimis_fhir_r4_ig/ValueSet/invoice-status</t>
   </si>
   <si>
     <t>Varies by domain</t>
@@ -9657,7 +9654,7 @@
         <v>74</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>74</v>
@@ -9674,11 +9671,9 @@
       <c r="W71" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="X71" t="s" s="2">
+      <c r="X71" s="2"/>
+      <c r="Y71" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>74</v>
@@ -9711,13 +9706,13 @@
         <v>95</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>74</v>
@@ -9725,7 +9720,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9751,13 +9746,13 @@
         <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9807,7 +9802,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
@@ -9836,11 +9831,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9862,10 +9857,10 @@
         <v>173</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9916,7 +9911,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -9931,21 +9926,21 @@
         <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10054,7 +10049,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10165,7 +10160,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10229,7 +10224,7 @@
       </c>
       <c r="X76" s="2"/>
       <c r="Y76" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>74</v>
@@ -10276,7 +10271,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10389,11 +10384,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10412,17 +10407,17 @@
         <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>74</v>
@@ -10471,7 +10466,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -10486,21 +10481,21 @@
         <v>95</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10523,13 +10518,13 @@
         <v>84</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10580,7 +10575,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -10595,21 +10590,21 @@
         <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>320</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10632,16 +10627,16 @@
         <v>84</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10691,7 +10686,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -10706,13 +10701,13 @@
         <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>74</v>
@@ -10720,7 +10715,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10743,13 +10738,13 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10800,7 +10795,7 @@
         <v>74</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -10815,10 +10810,10 @@
         <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>74</v>
@@ -10829,7 +10824,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10938,7 +10933,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11049,11 +11044,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11075,10 +11070,10 @@
         <v>129</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>132</v>
@@ -11133,7 +11128,7 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -11162,7 +11157,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11188,10 +11183,10 @@
         <v>173</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11242,7 +11237,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -11257,10 +11252,10 @@
         <v>95</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>74</v>
@@ -11271,7 +11266,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11294,13 +11289,13 @@
         <v>74</v>
       </c>
       <c r="J86" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K86" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K86" t="s" s="2">
+      <c r="L86" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11351,7 +11346,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>83</v>
@@ -11366,13 +11361,13 @@
         <v>95</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AK86" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL86" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>74</v>
@@ -11380,7 +11375,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11391,7 +11386,7 @@
         <v>75</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>74</v>
@@ -11406,13 +11401,13 @@
         <v>268</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -11462,7 +11457,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -11480,7 +11475,7 @@
         <v>126</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>74</v>
@@ -11491,7 +11486,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11514,16 +11509,16 @@
         <v>74</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L88" t="s" s="2">
+      <c r="M88" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11573,7 +11568,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -11602,7 +11597,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11625,13 +11620,13 @@
         <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11682,7 +11677,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -11697,10 +11692,10 @@
         <v>95</v>
       </c>
       <c r="AJ89" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK89" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>74</v>
@@ -11711,7 +11706,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11820,7 +11815,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11931,11 +11926,11 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11957,10 +11952,10 @@
         <v>129</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M92" t="s" s="2">
         <v>132</v>
@@ -12015,7 +12010,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -12044,7 +12039,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12067,13 +12062,13 @@
         <v>74</v>
       </c>
       <c r="J93" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K93" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K93" t="s" s="2">
+      <c r="L93" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12124,7 +12119,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -12153,7 +12148,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12179,10 +12174,10 @@
         <v>173</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12221,7 +12216,7 @@
         <v>74</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AB94" s="2"/>
       <c r="AC94" t="s" s="2">
@@ -12231,7 +12226,7 @@
         <v>147</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>83</v>
@@ -12246,10 +12241,10 @@
         <v>95</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>74</v>
@@ -12260,10 +12255,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>74</v>
@@ -12288,10 +12283,10 @@
         <v>173</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12322,7 +12317,7 @@
       </c>
       <c r="X95" s="2"/>
       <c r="Y95" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>74</v>
@@ -12340,7 +12335,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>83</v>
@@ -12355,10 +12350,10 @@
         <v>95</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>74</v>
@@ -12369,7 +12364,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -12392,13 +12387,13 @@
         <v>74</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12449,7 +12444,7 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>75</v>
@@ -12464,10 +12459,10 @@
         <v>95</v>
       </c>
       <c r="AJ96" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>74</v>
@@ -12478,7 +12473,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12587,7 +12582,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12613,10 +12608,10 @@
         <v>129</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12694,10 +12689,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>74</v>
@@ -12719,13 +12714,13 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12785,7 +12780,7 @@
         <v>76</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>134</v>
@@ -12805,11 +12800,11 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12831,10 +12826,10 @@
         <v>129</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>132</v>
@@ -12889,7 +12884,7 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -12918,7 +12913,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12944,10 +12939,10 @@
         <v>103</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -12978,7 +12973,7 @@
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>74</v>
@@ -12996,7 +12991,7 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>83</v>
@@ -13011,21 +13006,21 @@
         <v>95</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK101" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK101" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AL101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13051,10 +13046,10 @@
         <v>173</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -13105,7 +13100,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>75</v>
@@ -13120,21 +13115,21 @@
         <v>95</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AK102" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>296</v>
-      </c>
       <c r="AL102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13243,7 +13238,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -13354,7 +13349,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -13467,7 +13462,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13576,7 +13571,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13687,7 +13682,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13800,7 +13795,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13911,7 +13906,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14022,7 +14017,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -14133,7 +14128,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -14246,7 +14241,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -14359,7 +14354,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14382,16 +14377,16 @@
         <v>74</v>
       </c>
       <c r="J114" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K114" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K114" t="s" s="2">
+      <c r="L114" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="M114" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -14441,7 +14436,7 @@
         <v>74</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -14456,7 +14451,7 @@
         <v>95</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>74</v>
@@ -14470,7 +14465,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -14493,16 +14488,16 @@
         <v>74</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L115" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="M115" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
@@ -14552,7 +14547,7 @@
         <v>74</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>75</v>
@@ -14567,7 +14562,7 @@
         <v>95</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AK115" t="s" s="2">
         <v>74</v>
@@ -14581,7 +14576,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14690,7 +14685,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -14801,7 +14796,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14824,19 +14819,19 @@
         <v>84</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>74</v>
@@ -14885,7 +14880,7 @@
         <v>74</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>75</v>
@@ -14900,7 +14895,7 @@
         <v>95</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK118" t="s" s="2">
         <v>74</v>
@@ -14914,7 +14909,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14940,14 +14935,14 @@
         <v>103</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>74</v>
@@ -14975,28 +14970,28 @@
         <v>167</v>
       </c>
       <c r="X119" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Y119" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Y119" t="s" s="2">
+      <c r="Z119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE119" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -15011,7 +15006,7 @@
         <v>95</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK119" t="s" s="2">
         <v>74</v>
@@ -15025,7 +15020,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -15051,10 +15046,10 @@
         <v>74</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -15105,7 +15100,7 @@
         <v>74</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -15120,10 +15115,10 @@
         <v>95</v>
       </c>
       <c r="AJ120" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK120" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>74</v>
@@ -15134,7 +15129,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -15157,16 +15152,16 @@
         <v>84</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L121" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="M121" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -15216,7 +15211,7 @@
         <v>74</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -15231,7 +15226,7 @@
         <v>95</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>74</v>
@@ -15245,7 +15240,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -15354,7 +15349,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -15465,7 +15460,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15488,19 +15483,19 @@
         <v>84</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>74</v>
@@ -15549,7 +15544,7 @@
         <v>74</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>75</v>
@@ -15564,7 +15559,7 @@
         <v>95</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK124" t="s" s="2">
         <v>74</v>
@@ -15578,7 +15573,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -15604,14 +15599,14 @@
         <v>103</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>74</v>
@@ -15639,28 +15634,28 @@
         <v>167</v>
       </c>
       <c r="X125" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Y125" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Y125" t="s" s="2">
+      <c r="Z125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE125" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>75</v>
@@ -15675,7 +15670,7 @@
         <v>95</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK125" t="s" s="2">
         <v>74</v>
@@ -15689,7 +15684,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15712,16 +15707,16 @@
         <v>84</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L126" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="M126" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -15771,7 +15766,7 @@
         <v>74</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -15786,7 +15781,7 @@
         <v>95</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>74</v>
@@ -15800,7 +15795,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15909,7 +15904,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16020,7 +16015,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -16043,19 +16038,19 @@
         <v>84</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>74</v>
@@ -16104,7 +16099,7 @@
         <v>74</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -16119,7 +16114,7 @@
         <v>95</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AK129" t="s" s="2">
         <v>74</v>
@@ -16133,7 +16128,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -16159,14 +16154,14 @@
         <v>103</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>74</v>
@@ -16194,28 +16189,28 @@
         <v>167</v>
       </c>
       <c r="X130" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="Y130" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Y130" t="s" s="2">
+      <c r="Z130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE130" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="Z130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD130" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE130" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
@@ -16230,7 +16225,7 @@
         <v>95</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>74</v>
@@ -16244,7 +16239,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -16267,16 +16262,16 @@
         <v>74</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
@@ -16326,7 +16321,7 @@
         <v>74</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>75</v>
@@ -16355,7 +16350,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -16378,13 +16373,13 @@
         <v>74</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="K132" t="s" s="2">
+      <c r="L132" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
@@ -16435,7 +16430,7 @@
         <v>74</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>75</v>
@@ -16450,16 +16445,16 @@
         <v>95</v>
       </c>
       <c r="AJ132" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK132" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AK132" t="s" s="2">
+      <c r="AL132" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AM132" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AL132" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AM132" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-invoice-bill.xlsx
+++ b/StructureDefinition-openimis-invoice-bill.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
